--- a/biology/Histoire de la zoologie et de la botanique/Société_américaine_d'écologie/Société_américaine_d'écologie.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Société_américaine_d'écologie/Société_américaine_d'écologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_am%C3%A9ricaine_d%27%C3%A9cologie</t>
+          <t>Société_américaine_d'écologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Société américaine d'écologie (en anglais Ecological Society of America ou ESA) est une société savante américaine regroupant des écologues professionnels. Elle compte, selon elle, environ 9 000 membres[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Société américaine d'écologie (en anglais Ecological Society of America ou ESA) est une société savante américaine regroupant des écologues professionnels. Elle compte, selon elle, environ 9 000 membres.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_am%C3%A9ricaine_d%27%C3%A9cologie</t>
+          <t>Société_américaine_d'écologie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Objectifs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La réunion fondatrice eut lieu à Columbus (Ohio) le 28 décembre 1915 dans le but de :
 promouvoir la science de l’écologie en améliorant les relations entre les différents spécialistes ;
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_am%C3%A9ricaine_d%27%C3%A9cologie</t>
+          <t>Société_américaine_d'écologie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La société publie la revue scientifique Ecology depuis 1920, ainsi que Ecological Monographs, Ecological Applications, Frontiers in Ecology, Issues in Ecology, The Bulletin... Un congrès annuel est organisé dans différentes villes des États-Unis et du Canada. Longtemps centrée sur des problèmes principalement techniques, cette organisation tente, depuis une dizaine d’années, d’avoir plus d’influence auprès des décideurs et du grand public, notamment par son bureau des affaires publiques et des publications vulgarisées.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_am%C3%A9ricaine_d%27%C3%A9cologie</t>
+          <t>Société_américaine_d'écologie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Présidents</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Nancy Grimm (2005-2006)
 Scott L. Collins (2021)</t>
